--- a/sample/ids.xlsx
+++ b/sample/ids.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5a20ca196396dbff/Documentos/Projetos/PROJETOS PYTHON/ids_converter/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosdias\Documents\PROJETOS\ids_converter\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{B9F8B35D-FAFB-4378-A2EE-E6F8B5289E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5687A526-5DBD-4DE8-BAF5-2EC6420C0B38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A472DE1-A9BC-486C-B14E-B6A0C3D03024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
+    <workbookView xWindow="57480" yWindow="-60" windowWidth="16440" windowHeight="28440" xr2:uid="{07C4ADEE-C849-4C6D-8317-4E1D149360FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="66">
   <si>
     <t>ARQUITETURA</t>
   </si>
@@ -223,6 +222,18 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>[0..9]</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -671,28 +682,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1E1C6B-A6DD-44E6-BB57-8CDA388BB456}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91:H96"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="9" width="23.90625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="37.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -720,8 +731,11 @@
       <c r="I1" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -746,9 +760,14 @@
       <c r="H2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -774,8 +793,11 @@
         <v>61</v>
       </c>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -801,8 +823,11 @@
         <v>61</v>
       </c>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -828,8 +853,11 @@
         <v>61</v>
       </c>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -855,8 +883,11 @@
         <v>61</v>
       </c>
       <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -882,8 +913,11 @@
         <v>61</v>
       </c>
       <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -909,8 +943,11 @@
         <v>61</v>
       </c>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -936,8 +973,11 @@
         <v>61</v>
       </c>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
@@ -961,8 +1001,11 @@
         <v>61</v>
       </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -986,8 +1029,11 @@
         <v>61</v>
       </c>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>0</v>
       </c>
@@ -1011,8 +1057,11 @@
         <v>61</v>
       </c>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
@@ -1036,8 +1085,11 @@
         <v>61</v>
       </c>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1113,11 @@
         <v>61</v>
       </c>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1141,11 @@
         <v>61</v>
       </c>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>0</v>
       </c>
@@ -1111,8 +1169,11 @@
         <v>61</v>
       </c>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>0</v>
       </c>
@@ -1136,8 +1197,11 @@
         <v>61</v>
       </c>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1225,11 @@
         <v>61</v>
       </c>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
@@ -1186,8 +1253,11 @@
         <v>61</v>
       </c>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1211,8 +1281,11 @@
         <v>61</v>
       </c>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1309,11 @@
         <v>61</v>
       </c>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -1261,8 +1337,11 @@
         <v>61</v>
       </c>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
@@ -1286,8 +1365,11 @@
         <v>61</v>
       </c>
       <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1311,8 +1393,11 @@
         <v>61</v>
       </c>
       <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -1336,8 +1421,11 @@
         <v>61</v>
       </c>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -1361,8 +1449,11 @@
         <v>49</v>
       </c>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1477,11 @@
         <v>49</v>
       </c>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
@@ -1411,8 +1505,11 @@
         <v>49</v>
       </c>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
@@ -1436,8 +1533,11 @@
         <v>49</v>
       </c>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
@@ -1461,8 +1561,11 @@
         <v>49</v>
       </c>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
@@ -1486,8 +1589,11 @@
         <v>49</v>
       </c>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
@@ -1511,8 +1617,11 @@
         <v>49</v>
       </c>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>16</v>
       </c>
@@ -1536,8 +1645,11 @@
         <v>49</v>
       </c>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1561,11 +1673,14 @@
         <v>61</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="L34" s="1" t="s">
+      <c r="J34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -1589,8 +1704,11 @@
         <v>61</v>
       </c>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
@@ -1614,8 +1732,11 @@
         <v>61</v>
       </c>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>16</v>
       </c>
@@ -1639,8 +1760,11 @@
         <v>61</v>
       </c>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1788,11 @@
         <v>49</v>
       </c>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -1689,8 +1816,11 @@
         <v>49</v>
       </c>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>16</v>
       </c>
@@ -1714,8 +1844,11 @@
         <v>49</v>
       </c>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -1739,8 +1872,11 @@
         <v>49</v>
       </c>
       <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
@@ -1764,8 +1900,11 @@
         <v>49</v>
       </c>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>16</v>
       </c>
@@ -1789,8 +1928,11 @@
         <v>49</v>
       </c>
       <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>16</v>
       </c>
@@ -1814,8 +1956,11 @@
         <v>49</v>
       </c>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
@@ -1839,8 +1984,11 @@
         <v>49</v>
       </c>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>16</v>
       </c>
@@ -1864,8 +2012,11 @@
         <v>61</v>
       </c>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>16</v>
       </c>
@@ -1889,8 +2040,11 @@
         <v>61</v>
       </c>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>16</v>
       </c>
@@ -1914,8 +2068,11 @@
         <v>61</v>
       </c>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
@@ -1939,8 +2096,11 @@
         <v>61</v>
       </c>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
@@ -1964,8 +2124,11 @@
         <v>49</v>
       </c>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>16</v>
       </c>
@@ -1989,8 +2152,11 @@
         <v>49</v>
       </c>
       <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>16</v>
       </c>
@@ -2014,8 +2180,11 @@
         <v>49</v>
       </c>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>16</v>
       </c>
@@ -2039,8 +2208,11 @@
         <v>49</v>
       </c>
       <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>16</v>
       </c>
@@ -2064,8 +2236,11 @@
         <v>49</v>
       </c>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2089,8 +2264,11 @@
         <v>49</v>
       </c>
       <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>16</v>
       </c>
@@ -2114,8 +2292,11 @@
         <v>49</v>
       </c>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>16</v>
       </c>
@@ -2139,8 +2320,11 @@
         <v>49</v>
       </c>
       <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>16</v>
       </c>
@@ -2164,8 +2348,11 @@
         <v>61</v>
       </c>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>16</v>
       </c>
@@ -2189,8 +2376,11 @@
         <v>61</v>
       </c>
       <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>16</v>
       </c>
@@ -2214,8 +2404,11 @@
         <v>61</v>
       </c>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>16</v>
       </c>
@@ -2239,8 +2432,11 @@
         <v>49</v>
       </c>
       <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>16</v>
       </c>
@@ -2264,8 +2460,11 @@
         <v>49</v>
       </c>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>16</v>
       </c>
@@ -2289,8 +2488,11 @@
         <v>49</v>
       </c>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>16</v>
       </c>
@@ -2314,8 +2516,11 @@
         <v>49</v>
       </c>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>16</v>
       </c>
@@ -2339,8 +2544,11 @@
         <v>49</v>
       </c>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>16</v>
       </c>
@@ -2364,8 +2572,11 @@
         <v>49</v>
       </c>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>16</v>
       </c>
@@ -2389,8 +2600,11 @@
         <v>49</v>
       </c>
       <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>16</v>
       </c>
@@ -2414,8 +2628,11 @@
         <v>49</v>
       </c>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>16</v>
       </c>
@@ -2439,8 +2656,11 @@
         <v>61</v>
       </c>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>16</v>
       </c>
@@ -2464,8 +2684,11 @@
         <v>61</v>
       </c>
       <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>16</v>
       </c>
@@ -2489,8 +2712,11 @@
         <v>61</v>
       </c>
       <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>16</v>
       </c>
@@ -2514,8 +2740,11 @@
         <v>49</v>
       </c>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
         <v>16</v>
       </c>
@@ -2539,8 +2768,11 @@
         <v>49</v>
       </c>
       <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>16</v>
       </c>
@@ -2564,8 +2796,11 @@
         <v>49</v>
       </c>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
         <v>16</v>
       </c>
@@ -2589,8 +2824,11 @@
         <v>49</v>
       </c>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>16</v>
       </c>
@@ -2614,8 +2852,11 @@
         <v>49</v>
       </c>
       <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>16</v>
       </c>
@@ -2639,8 +2880,11 @@
         <v>49</v>
       </c>
       <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>16</v>
       </c>
@@ -2664,8 +2908,11 @@
         <v>49</v>
       </c>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -2689,8 +2936,11 @@
         <v>49</v>
       </c>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>16</v>
       </c>
@@ -2714,8 +2964,11 @@
         <v>61</v>
       </c>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J80" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>16</v>
       </c>
@@ -2739,8 +2992,11 @@
         <v>61</v>
       </c>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>16</v>
       </c>
@@ -2764,8 +3020,11 @@
         <v>61</v>
       </c>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>16</v>
       </c>
@@ -2789,8 +3048,11 @@
         <v>49</v>
       </c>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>16</v>
       </c>
@@ -2814,8 +3076,11 @@
         <v>49</v>
       </c>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>16</v>
       </c>
@@ -2839,8 +3104,11 @@
         <v>49</v>
       </c>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J85" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>16</v>
       </c>
@@ -2864,8 +3132,11 @@
         <v>49</v>
       </c>
       <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J86" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>16</v>
       </c>
@@ -2889,8 +3160,11 @@
         <v>49</v>
       </c>
       <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>16</v>
       </c>
@@ -2914,8 +3188,11 @@
         <v>49</v>
       </c>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>16</v>
       </c>
@@ -2939,8 +3216,11 @@
         <v>49</v>
       </c>
       <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>16</v>
       </c>
@@ -2964,8 +3244,11 @@
         <v>49</v>
       </c>
       <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
         <v>16</v>
       </c>
@@ -2989,8 +3272,11 @@
         <v>61</v>
       </c>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>16</v>
       </c>
@@ -3014,8 +3300,11 @@
         <v>61</v>
       </c>
       <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>16</v>
       </c>
@@ -3039,8 +3328,11 @@
         <v>61</v>
       </c>
       <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>16</v>
       </c>
@@ -3064,8 +3356,11 @@
         <v>61</v>
       </c>
       <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3386,11 @@
         <v>61</v>
       </c>
       <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>16</v>
       </c>
@@ -3118,22 +3416,13 @@
         <v>61</v>
       </c>
       <c r="I96" s="9"/>
+      <c r="J96" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EAED64-A9DF-4C22-A4AA-1A4B5C3585CE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>